--- a/Showroom_adresacja_IP.xlsx
+++ b/Showroom_adresacja_IP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Censor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Censor\Desktop\SHOWROOM_PROGRAMOWANIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00492A-2B70-4FA7-8F66-CD0CFC4B08B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE65EB-F4F7-46A0-A50C-B85A49CDFF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="143">
   <si>
     <t>Moduł</t>
   </si>
@@ -240,12 +240,6 @@
     <t>RFID, NEXO</t>
   </si>
   <si>
-    <t>RFID, DELTA, PORTAL</t>
-  </si>
-  <si>
-    <t>RFID, GRAWER, PRESS</t>
-  </si>
-  <si>
     <t>IP</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>TS, EQ 2, CARTESIAN</t>
   </si>
   <si>
-    <t>RFID, CARTESIAN, NEXO</t>
-  </si>
-  <si>
     <t>RFID, CARTESIAN</t>
   </si>
   <si>
@@ -390,15 +381,6 @@
     <t>00-60-34-03-2A-B9</t>
   </si>
   <si>
-    <t>RFID1, FEEDER, APAS</t>
-  </si>
-  <si>
-    <t>RFID1, FEEDER</t>
-  </si>
-  <si>
-    <t>RFID1, APAS</t>
-  </si>
-  <si>
     <t>SLC-3</t>
   </si>
   <si>
@@ -412,6 +394,75 @@
   </si>
   <si>
     <t>52S1</t>
+  </si>
+  <si>
+    <t>00-60-34-03-29-8A</t>
+  </si>
+  <si>
+    <t>Sercos/Profinet Address</t>
+  </si>
+  <si>
+    <t>RFID1</t>
+  </si>
+  <si>
+    <t>RFID2</t>
+  </si>
+  <si>
+    <t>RFID, FEEDER</t>
+  </si>
+  <si>
+    <t>RFID, APAS</t>
+  </si>
+  <si>
+    <t>RFID, PORTAL, DELTA</t>
+  </si>
+  <si>
+    <t>RFID1, CH1</t>
+  </si>
+  <si>
+    <t>RFID1, CH2</t>
+  </si>
+  <si>
+    <t>RFID4</t>
+  </si>
+  <si>
+    <t>RFID, NEXO, GRAWER</t>
+  </si>
+  <si>
+    <t>RFID4, CH1</t>
+  </si>
+  <si>
+    <t>RFID4, CH2</t>
+  </si>
+  <si>
+    <t>00-60-34-03-2B-4C</t>
+  </si>
+  <si>
+    <t>RFID, APAS, FEEDER</t>
+  </si>
+  <si>
+    <t>RFID2, CH1</t>
+  </si>
+  <si>
+    <t>RFID2, CH2</t>
+  </si>
+  <si>
+    <t>RFID, PRESS, CARTESIAN</t>
+  </si>
+  <si>
+    <t>RFID3, CH1</t>
+  </si>
+  <si>
+    <t>RFID3</t>
+  </si>
+  <si>
+    <t>RFID3, CH2</t>
+  </si>
+  <si>
+    <t>Configuration needed</t>
+  </si>
+  <si>
+    <t>AES</t>
   </si>
 </sst>
 </file>
@@ -433,15 +484,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -449,11 +506,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,6 +560,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,12 +614,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:N51" totalsRowShown="0">
-  <autoFilter ref="A1:N51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N50">
-    <sortCondition ref="H1:H50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:O51" totalsRowShown="0">
+  <autoFilter ref="A1:O51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O50">
+    <sortCondition ref="I1:I50"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Numer" dataDxfId="4"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="MAC Address" dataDxfId="3"/>
@@ -515,9 +627,10 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Szafka" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kod"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Interfejs"/>
+    <tableColumn id="16" xr3:uid="{761C0BB0-8ACB-4ADB-95CF-BA40526598D2}" name="Sercos/Profinet Address"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IP" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Full IP" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Mask"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Gateway"/>
@@ -826,11 +939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,14 +953,14 @@
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
-    <col min="8" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -855,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -869,72 +982,76 @@
       <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="2">
+        <v>68</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J2" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.1</v>
       </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -954,30 +1071,31 @@
       <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3"/>
+      <c r="I3" s="5">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J3" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.10</v>
       </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -997,30 +1115,31 @@
       <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4"/>
+      <c r="I4" s="2">
         <v>11</v>
       </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.11</v>
       </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1037,30 +1156,33 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="2">
         <v>12</v>
       </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J5" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.12</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1068,10 +1190,10 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1082,30 +1204,33 @@
       <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <v>13</v>
       </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J6" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.13</v>
       </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1113,10 +1238,10 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1127,30 +1252,33 @@
       <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
         <v>14</v>
       </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J7" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.14</v>
       </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1158,10 +1286,10 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1172,30 +1300,33 @@
       <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
         <v>15</v>
       </c>
-      <c r="I8" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J8" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.15</v>
       </c>
-      <c r="J8" t="s">
-        <v>74</v>
-      </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1203,10 +1334,10 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1217,30 +1348,33 @@
       <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
         <v>16</v>
       </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J9" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.16</v>
       </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1248,10 +1382,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1262,30 +1396,33 @@
       <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
         <v>17</v>
       </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J10" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.17</v>
       </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1293,10 +1430,10 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1307,30 +1444,33 @@
       <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
         <v>18</v>
       </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J11" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.18</v>
       </c>
-      <c r="J11" t="s">
-        <v>74</v>
-      </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1338,10 +1478,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1352,39 +1492,44 @@
       <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
         <v>19</v>
       </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J12" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.19</v>
       </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="1">
         <v>3842410060</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
@@ -1392,39 +1537,44 @@
       <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J13" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.20</v>
       </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="1">
         <v>3842410065</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>48</v>
@@ -1432,39 +1582,42 @@
       <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="2">
-        <v>21</v>
-      </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="1">
         <v>3842410065</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>48</v>
@@ -1472,39 +1625,42 @@
       <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="2">
-        <v>22</v>
-      </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>74</v>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>3842410060</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>48</v>
@@ -1512,39 +1668,44 @@
       <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="2">
-        <v>23</v>
-      </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.23</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="2">
+        <v>21</v>
+      </c>
+      <c r="J16" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.21</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>3842410065</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>48</v>
@@ -1552,39 +1713,42 @@
       <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="2">
-        <v>24</v>
-      </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>3842410065</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1592,39 +1756,42 @@
       <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="2">
-        <v>25</v>
-      </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.25</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
+      <c r="H18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>3842410060</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -1632,39 +1799,44 @@
       <c r="G19" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="2">
-        <v>26</v>
-      </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>74</v>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="2">
+        <v>22</v>
+      </c>
+      <c r="J19" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.22</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1">
         <v>3842410065</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>48</v>
@@ -1672,39 +1844,42 @@
       <c r="G20" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="2">
-        <v>27</v>
-      </c>
-      <c r="I20" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>74</v>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>3842410065</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
@@ -1712,152 +1887,165 @@
       <c r="G21" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="2">
-        <v>28</v>
-      </c>
-      <c r="I21" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.28</v>
-      </c>
-      <c r="J21" t="s">
-        <v>74</v>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="12">
         <v>3842410060</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="2">
-        <v>29</v>
-      </c>
-      <c r="I22" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="H22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="13">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.23</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="14">
         <v>3842410065</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G23" t="s">
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="2">
-        <v>30</v>
-      </c>
-      <c r="I23" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.30</v>
-      </c>
-      <c r="J23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="9" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="12">
         <v>3842410065</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="s">
+      <c r="D24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="2">
-        <v>31</v>
-      </c>
-      <c r="I24" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
-        <v>192.168.99.31</v>
-      </c>
-      <c r="J24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="7" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
+        <v>192.168.99.</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1874,30 +2062,31 @@
       <c r="G25" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25"/>
+      <c r="I25" s="2">
         <v>40</v>
       </c>
-      <c r="I25" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J25" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.40</v>
       </c>
-      <c r="J25" t="s">
-        <v>74</v>
-      </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1914,30 +2103,31 @@
       <c r="G26" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26"/>
+      <c r="I26" s="2">
         <v>41</v>
       </c>
-      <c r="I26" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J26" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.41</v>
       </c>
-      <c r="J26" t="s">
-        <v>74</v>
-      </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1957,30 +2147,31 @@
       <c r="G27" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27"/>
+      <c r="I27" s="2">
         <v>42</v>
       </c>
-      <c r="I27" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J27" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.42</v>
       </c>
-      <c r="J27" t="s">
-        <v>74</v>
-      </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2000,30 +2191,31 @@
       <c r="G28" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28"/>
+      <c r="I28" s="2">
         <v>50</v>
       </c>
-      <c r="I28" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J28" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.50</v>
       </c>
-      <c r="J28" t="s">
-        <v>74</v>
-      </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2043,30 +2235,31 @@
       <c r="G29" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29"/>
+      <c r="I29" s="2">
         <v>51</v>
       </c>
-      <c r="I29" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J29" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.51</v>
       </c>
-      <c r="J29" t="s">
-        <v>74</v>
-      </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2083,30 +2276,31 @@
       <c r="G30" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30"/>
+      <c r="I30" s="2">
         <v>52</v>
       </c>
-      <c r="I30" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J30" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.52</v>
       </c>
-      <c r="J30" t="s">
-        <v>74</v>
-      </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2126,30 +2320,31 @@
       <c r="G31" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31"/>
+      <c r="I31" s="2">
         <v>60</v>
       </c>
-      <c r="I31" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J31" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.60</v>
       </c>
-      <c r="J31" t="s">
-        <v>74</v>
-      </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2169,30 +2364,31 @@
       <c r="G32" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32"/>
+      <c r="I32" s="2">
         <v>61</v>
       </c>
-      <c r="I32" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J32" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.61</v>
       </c>
-      <c r="J32" t="s">
-        <v>74</v>
-      </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2212,30 +2408,31 @@
       <c r="G33" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33"/>
+      <c r="I33" s="2">
         <v>70</v>
       </c>
-      <c r="I33" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J33" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.70</v>
       </c>
-      <c r="J33" t="s">
-        <v>74</v>
-      </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2255,30 +2452,31 @@
       <c r="G34" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34"/>
+      <c r="I34" s="2">
         <v>71</v>
       </c>
-      <c r="I34" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J34" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.71</v>
       </c>
-      <c r="J34" t="s">
-        <v>74</v>
-      </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2295,30 +2493,31 @@
       <c r="G35" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35"/>
+      <c r="I35" s="2">
         <v>80</v>
       </c>
-      <c r="I35" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J35" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.80</v>
       </c>
-      <c r="J35" t="s">
-        <v>74</v>
-      </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2338,230 +2537,236 @@
       <c r="G36" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36"/>
+      <c r="I36" s="2">
         <v>90</v>
       </c>
-      <c r="I36" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J36" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.90</v>
       </c>
-      <c r="J36" t="s">
-        <v>74</v>
-      </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L36" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" t="s">
-        <v>93</v>
-      </c>
       <c r="G37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="2">
+        <v>68</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" s="2">
         <v>91</v>
       </c>
-      <c r="I37" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J37" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.91</v>
       </c>
-      <c r="J37" t="s">
-        <v>74</v>
-      </c>
       <c r="K37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="2">
+        <v>68</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" s="2">
         <v>92</v>
       </c>
-      <c r="I38" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J38" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.92</v>
       </c>
-      <c r="J38" t="s">
-        <v>74</v>
-      </c>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="2">
+        <v>68</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" s="2">
         <v>96</v>
       </c>
-      <c r="I39" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J39" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.96</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>74</v>
-      </c>
-      <c r="K39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M39" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>76</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="2">
+        <v>68</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="2">
         <v>97</v>
       </c>
-      <c r="I40" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J40" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.97</v>
       </c>
-      <c r="J40" t="s">
-        <v>74</v>
-      </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="2">
+        <v>68</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" s="2">
         <v>98</v>
       </c>
-      <c r="I41" s="4" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="J41" s="4" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.98</v>
       </c>
-      <c r="J41" t="s">
-        <v>74</v>
-      </c>
       <c r="K41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2581,28 +2786,29 @@
       <c r="G42" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H42"/>
+      <c r="I42" s="2"/>
+      <c r="J42" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J42" t="s">
-        <v>74</v>
-      </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2622,28 +2828,29 @@
       <c r="G43" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H43"/>
+      <c r="I43" s="2"/>
+      <c r="J43" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J43" t="s">
-        <v>74</v>
-      </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2663,28 +2870,29 @@
       <c r="G44" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H44"/>
+      <c r="I44" s="2"/>
+      <c r="J44" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J44" t="s">
-        <v>74</v>
-      </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2704,28 +2912,29 @@
       <c r="G45" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H45"/>
+      <c r="I45" s="2"/>
+      <c r="J45" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J45" t="s">
-        <v>74</v>
-      </c>
       <c r="K45" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2739,31 +2948,35 @@
       <c r="E46" s="2">
         <v>10</v>
       </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
       <c r="G46" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H46"/>
+      <c r="I46" s="2"/>
+      <c r="J46" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J46" t="s">
-        <v>74</v>
-      </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2777,31 +2990,35 @@
       <c r="E47" s="2">
         <v>10</v>
       </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
       <c r="G47" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H47"/>
+      <c r="I47" s="2"/>
+      <c r="J47" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J47" t="s">
-        <v>74</v>
-      </c>
       <c r="K47" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2821,28 +3038,29 @@
       <c r="G48" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H48"/>
+      <c r="I48" s="2"/>
+      <c r="J48" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J48" t="s">
-        <v>74</v>
-      </c>
       <c r="K48" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2862,28 +3080,29 @@
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H49"/>
+      <c r="I49" s="2"/>
+      <c r="J49" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J49" t="s">
-        <v>74</v>
-      </c>
       <c r="K49" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2903,58 +3122,65 @@
       <c r="G50" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" t="str">
-        <f>CONCATENATE($R$1,Tabela1[[#This Row],[IP]])</f>
+      <c r="H50"/>
+      <c r="I50" s="2"/>
+      <c r="J50" t="str">
+        <f>CONCATENATE($S$1,Tabela1[[#This Row],[IP]])</f>
         <v>192.168.99.</v>
       </c>
-      <c r="J50" t="s">
-        <v>74</v>
-      </c>
       <c r="K50" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2">
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K51" t="s">
-        <v>81</v>
+        <v>119</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="2">
+        <v>8</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N51" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3203,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
